--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1702,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1795,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2280,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2327,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2373,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2557,10 +2569,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2604,28 +2616,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2650,28 +2662,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2829,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2922,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3135,10 +3147,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3182,28 +3194,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3228,28 +3240,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3366,10 +3378,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3413,28 +3425,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3459,28 +3471,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3626,10 +3638,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3673,28 +3685,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3719,28 +3731,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3886,10 +3898,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3933,28 +3945,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3979,28 +3991,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4129,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4176,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4222,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4290,10 +4302,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4337,28 +4349,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4383,28 +4395,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4550,10 +4562,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4597,28 +4609,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4643,28 +4655,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4822,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4869,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4915,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4983,10 +4995,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5030,28 +5042,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5076,28 +5088,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5243,10 +5255,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5290,28 +5302,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5336,28 +5348,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5416,10 +5428,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5463,28 +5475,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5509,28 +5521,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5589,10 +5601,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5636,28 +5648,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5682,28 +5694,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5762,10 +5774,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5809,28 +5821,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5855,28 +5867,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5935,10 +5947,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5982,28 +5994,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6028,28 +6040,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6108,10 +6120,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6155,28 +6167,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6201,28 +6213,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6281,10 +6293,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6328,28 +6340,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6374,28 +6386,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6454,10 +6466,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6501,28 +6513,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6547,28 +6559,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6627,10 +6639,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6674,28 +6686,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6720,28 +6732,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6800,10 +6812,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6847,28 +6859,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6893,28 +6905,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6985,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7020,28 +7032,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7078,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7146,10 +7158,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7193,28 +7205,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7239,28 +7251,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7319,10 +7331,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7366,28 +7378,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7412,28 +7424,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7533,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7568,28 +7580,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7626,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7706,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7741,28 +7753,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7799,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7867,10 +7879,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7914,28 +7926,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7960,28 +7972,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8069,10 +8081,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8116,28 +8128,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8162,28 +8174,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8254,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8289,28 +8301,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8347,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8444,10 +8456,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8491,28 +8503,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8537,28 +8549,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8617,10 +8629,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8664,28 +8676,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8710,28 +8722,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
